--- a/excel/laporan-transaksi-spp.xlsx
+++ b/excel/laporan-transaksi-spp.xlsx
@@ -41,7 +41,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Jin Doe</t>
+    <t>Jin Do</t>
   </si>
   <si>
     <t>TK A</t>
@@ -56,42 +56,45 @@
     <t>2023-04-07 14:33:55</t>
   </si>
   <si>
+    <t>Ditunggu</t>
+  </si>
+  <si>
+    <t>Biaya SPP TK</t>
+  </si>
+  <si>
+    <t>2023-06-07 14:32:00</t>
+  </si>
+  <si>
+    <t>Biaya SPP TK Bulan Mei</t>
+  </si>
+  <si>
+    <t>2023-05-06 14:33:55</t>
+  </si>
+  <si>
+    <t>Biaya SPP bulan Maret</t>
+  </si>
+  <si>
+    <t>2023-03-08 14:37:00</t>
+  </si>
+  <si>
+    <t>Biaya SPP Bulan Februari</t>
+  </si>
+  <si>
+    <t>2023-02-07 14:37:00</t>
+  </si>
+  <si>
+    <t>Jon Doe</t>
+  </si>
+  <si>
+    <t>Biaya SPP</t>
+  </si>
+  <si>
+    <t>2023-06-01 14:44:26</t>
+  </si>
+  <si>
     <t>Diterima</t>
   </si>
   <si>
-    <t>Biaya SPP TK</t>
-  </si>
-  <si>
-    <t>2023-06-07 14:32:00</t>
-  </si>
-  <si>
-    <t>Biaya SPP TK Bulan Mei</t>
-  </si>
-  <si>
-    <t>2023-05-06 14:33:55</t>
-  </si>
-  <si>
-    <t>Biaya SPP bulan Maret</t>
-  </si>
-  <si>
-    <t>2023-03-08 14:37:00</t>
-  </si>
-  <si>
-    <t>Biaya SPP Bulan Februari</t>
-  </si>
-  <si>
-    <t>2023-02-07 14:37:00</t>
-  </si>
-  <si>
-    <t>Jon Doe</t>
-  </si>
-  <si>
-    <t>Biaya SPP</t>
-  </si>
-  <si>
-    <t>2023-06-01 14:44:26</t>
-  </si>
-  <si>
     <t>2023-05-03 14:44:26</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
   </si>
   <si>
     <t>2023-05-04 08:50:35</t>
-  </si>
-  <si>
-    <t>Ditunggu</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -673,10 +673,10 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
         <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -684,25 +684,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
         <v>125000</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -710,25 +710,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>125000</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excel/laporan-transaksi-spp.xlsx
+++ b/excel/laporan-transaksi-spp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -41,76 +41,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Jin Do</t>
-  </si>
-  <si>
-    <t>TK A</t>
-  </si>
-  <si>
-    <t>TK AR-RAHMAH</t>
-  </si>
-  <si>
-    <t>Biaya SPP TK Bulan April</t>
-  </si>
-  <si>
-    <t>2023-04-07 14:33:55</t>
+    <t>ABIDAH KAMILA LISTIO</t>
+  </si>
+  <si>
+    <t>SD AR-RAHMAH</t>
+  </si>
+  <si>
+    <t>Biaya SPP SD</t>
+  </si>
+  <si>
+    <t>2023-05-05 13:03:19</t>
   </si>
   <si>
     <t>Ditunggu</t>
   </si>
   <si>
-    <t>Biaya SPP TK</t>
-  </si>
-  <si>
-    <t>2023-06-07 14:32:00</t>
-  </si>
-  <si>
-    <t>Biaya SPP TK Bulan Mei</t>
-  </si>
-  <si>
-    <t>2023-05-06 14:33:55</t>
-  </si>
-  <si>
-    <t>Biaya SPP bulan Maret</t>
-  </si>
-  <si>
-    <t>2023-03-08 14:37:00</t>
-  </si>
-  <si>
-    <t>Biaya SPP Bulan Februari</t>
-  </si>
-  <si>
-    <t>2023-02-07 14:37:00</t>
-  </si>
-  <si>
-    <t>Jon Doe</t>
-  </si>
-  <si>
-    <t>Biaya SPP</t>
-  </si>
-  <si>
-    <t>2023-06-01 14:44:26</t>
-  </si>
-  <si>
-    <t>Diterima</t>
-  </si>
-  <si>
-    <t>2023-05-03 14:44:26</t>
-  </si>
-  <si>
-    <t>Jo Do</t>
-  </si>
-  <si>
-    <t>SD AR-RAHMAH</t>
-  </si>
-  <si>
-    <t>Biaya SPP SD dan tabungan</t>
-  </si>
-  <si>
-    <t>2023-06-02 08:50:35</t>
-  </si>
-  <si>
-    <t>2023-05-04 08:50:35</t>
+    <t>2023-04-06 13:03:19</t>
   </si>
 </sst>
 </file>
@@ -453,10 +399,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,23 +450,23 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1">
+        <v>125000</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
-        <v>150000</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -530,205 +476,23 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1">
+        <v>125000</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>150000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>150000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>150000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>150000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>150000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>150000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1">
-        <v>125000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1">
-        <v>125000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/excel/laporan-transaksi-spp.xlsx
+++ b/excel/laporan-transaksi-spp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>ABIDAH KAMILA LISTIO</t>
+    <t>BBB</t>
   </si>
   <si>
     <t>SD AR-RAHMAH</t>
@@ -50,13 +50,10 @@
     <t>Biaya SPP SD</t>
   </si>
   <si>
-    <t>2023-05-05 13:03:19</t>
-  </si>
-  <si>
-    <t>Ditunggu</t>
-  </si>
-  <si>
-    <t>2023-04-06 13:03:19</t>
+    <t>2023-06-02 11:51:32</t>
+  </si>
+  <si>
+    <t>Diterima</t>
   </si>
 </sst>
 </file>
@@ -399,10 +396,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,13 +448,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>125000</v>
+        <v>25000</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -466,32 +463,6 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>125000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/excel/laporan-transaksi-spp.xlsx
+++ b/excel/laporan-transaksi-spp.xlsx
@@ -41,7 +41,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>BBB</t>
+    <t>Fiona Adelya</t>
   </si>
   <si>
     <t>SD AR-RAHMAH</t>

--- a/excel/laporan-transaksi-spp.xlsx
+++ b/excel/laporan-transaksi-spp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -41,19 +41,34 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Fiona Adelya</t>
+    <t>Muhammad Alkenzio Ghaisan Firdaus</t>
   </si>
   <si>
     <t>SD AR-RAHMAH</t>
   </si>
   <si>
+    <t>Biaya SPP SD Untuk 3 Bulan</t>
+  </si>
+  <si>
+    <t>2023-06-02 11:02:15</t>
+  </si>
+  <si>
+    <t>Diterima</t>
+  </si>
+  <si>
     <t>Biaya SPP SD</t>
   </si>
   <si>
+    <t>2023-05-05 11:04:45</t>
+  </si>
+  <si>
+    <t>2023-04-06 11:04:45</t>
+  </si>
+  <si>
+    <t>FIONA ADELYA</t>
+  </si>
+  <si>
     <t>2023-06-02 11:51:32</t>
-  </si>
-  <si>
-    <t>Diterima</t>
   </si>
 </sst>
 </file>
@@ -396,10 +411,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -463,6 +478,84 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/excel/laporan-transaksi-spp.xlsx
+++ b/excel/laporan-transaksi-spp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -41,34 +41,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Muhammad Alkenzio Ghaisan Firdaus</t>
-  </si>
-  <si>
-    <t>SD AR-RAHMAH</t>
-  </si>
-  <si>
-    <t>Biaya SPP SD Untuk 3 Bulan</t>
-  </si>
-  <si>
-    <t>2023-06-02 11:02:15</t>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>TK A</t>
+  </si>
+  <si>
+    <t>TK AR-RAHMAH</t>
+  </si>
+  <si>
+    <t>Biaya SPP TK</t>
+  </si>
+  <si>
+    <t>2023-07-10 08:13:08</t>
   </si>
   <si>
     <t>Diterima</t>
-  </si>
-  <si>
-    <t>Biaya SPP SD</t>
-  </si>
-  <si>
-    <t>2023-05-05 11:04:45</t>
-  </si>
-  <si>
-    <t>2023-04-06 11:04:45</t>
-  </si>
-  <si>
-    <t>FIONA ADELYA</t>
-  </si>
-  <si>
-    <t>2023-06-02 11:51:32</t>
   </si>
 </sst>
 </file>
@@ -411,10 +399,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -462,101 +450,23 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>25000</v>
+        <v>250000</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>25000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/excel/laporan-transaksi-spp.xlsx
+++ b/excel/laporan-transaksi-spp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -38,7 +38,55 @@
     <t>Tanggal Bayar</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Arif Susila Wibawa</t>
+  </si>
+  <si>
+    <t>SD AR-RAHMAH</t>
+  </si>
+  <si>
+    <t>Bayar SPP 7 bulan</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:21:13</t>
+  </si>
+  <si>
+    <t>Bayar SPP 5 bulan</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:21:39</t>
+  </si>
+  <si>
+    <t>Akhmad Jusuf Wibowo</t>
+  </si>
+  <si>
+    <t>Bayar SPP 8 bulan</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:23:23</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:24:49</t>
+  </si>
+  <si>
+    <t>Bayar SPP</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:27:14</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:27:36</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:27:54</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:29:31</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:29:50</t>
+  </si>
+  <si>
+    <t>2023-08-05 06:37:15</t>
   </si>
   <si>
     <t>Jane Doe</t>
@@ -50,13 +98,115 @@
     <t>TK AR-RAHMAH</t>
   </si>
   <si>
-    <t>Biaya SPP TK</t>
-  </si>
-  <si>
-    <t>2023-07-10 08:13:08</t>
-  </si>
-  <si>
-    <t>Diterima</t>
+    <t>2023-07-31 14:04:58</t>
+  </si>
+  <si>
+    <t>2023-08-04 05:03:26</t>
+  </si>
+  <si>
+    <t>Samuel Jane Do Walker Smith Jr</t>
+  </si>
+  <si>
+    <t>Bayar SPP untuk satu tahun full</t>
+  </si>
+  <si>
+    <t>2023-07-29 16:28:07</t>
+  </si>
+  <si>
+    <t>Bayar SPP untuk bulan Agustus (cicil)</t>
+  </si>
+  <si>
+    <t>2023-07-29 18:10:14</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:05:40</t>
+  </si>
+  <si>
+    <t>Mimi</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:06:16</t>
+  </si>
+  <si>
+    <t>Jun Doe</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:34:00</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:36:47</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:41:39</t>
+  </si>
+  <si>
+    <t>2023-08-01 08:48:47</t>
+  </si>
+  <si>
+    <t>2023-08-01 10:09:45</t>
+  </si>
+  <si>
+    <t>2023-08-01 10:10:40</t>
+  </si>
+  <si>
+    <t>Momo</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:47:49</t>
+  </si>
+  <si>
+    <t>Jin Doe</t>
+  </si>
+  <si>
+    <t>2023-07-30 05:56:40</t>
+  </si>
+  <si>
+    <t>Jon Doe</t>
+  </si>
+  <si>
+    <t>2023-07-29 16:14:47</t>
+  </si>
+  <si>
+    <t>2023-07-29 18:24:22</t>
+  </si>
+  <si>
+    <t>Wahyu</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:55:11</t>
+  </si>
+  <si>
+    <t>2023-07-30 05:42:30</t>
+  </si>
+  <si>
+    <t>2023-07-30 06:20:37</t>
+  </si>
+  <si>
+    <t>Hasan</t>
+  </si>
+  <si>
+    <t>2023-08-05 05:40:21</t>
+  </si>
+  <si>
+    <t>2023-08-05 05:41:45</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>TK B</t>
+  </si>
+  <si>
+    <t>2023-07-29 17:27:55</t>
+  </si>
+  <si>
+    <t>2023-07-29 17:41:26</t>
+  </si>
+  <si>
+    <t>2023-07-29 17:42:10</t>
+  </si>
+  <si>
+    <t>2023-07-29 18:00:33</t>
   </si>
 </sst>
 </file>
@@ -399,10 +549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,34 +589,2788 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>227000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>377000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>377000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>377000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>377000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>308000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>69000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>377000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>177000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>277000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1">
+        <v>175000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1">
+        <v>175000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1">
         <v>250000</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="1">
+        <v>225000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1">
+        <v>250000</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="1">
+        <v>150000</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E84" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="1">
+        <v>225000</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E111" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F111" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>58</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F112" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F117" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F119" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D120" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F121" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="1">
+        <v>175000</v>
+      </c>
+      <c r="F122" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
